--- a/Levels Objectives.xlsx
+++ b/Levels Objectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Desktop\Syntez\Tanchiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2D2F043-184B-414D-B743-93E3AF5D2102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C910BAD-783D-4CA9-9F62-1A87D89B68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
   <si>
     <t>Обучение</t>
   </si>
@@ -54,15 +54,9 @@
     <t>Испытание навыков в битве: битва с настоящими противниками, умение использовать лечащие боксы. Знакомство с боссом-толстяком</t>
   </si>
   <si>
-    <t>Первая настоящая битва, знакомство с боссом-толстяком</t>
-  </si>
-  <si>
     <t>Саванна</t>
   </si>
   <si>
-    <t>Новый биом уровня, битва с танком-койотом и раллийными танками</t>
-  </si>
-  <si>
     <t>Битва с танком-койотом и раллийными танками</t>
   </si>
   <si>
@@ -117,15 +111,9 @@
     <t>Знакомство танком-койотом, раллийными танками и особенностями пустынми</t>
   </si>
   <si>
-    <t>Босс-толстяк</t>
-  </si>
-  <si>
     <t>Уменьшенное колво здоровья. Быстро перезаряжется и наносит крохотное колво урона. Ускоренное передвижение</t>
   </si>
   <si>
-    <t>Койот</t>
-  </si>
-  <si>
     <t>Большое колво здоровья. Быстрая перезарядка и средний урон. Неповоротливость башни и корпуса. Низкая скорость.</t>
   </si>
   <si>
@@ -154,6 +142,60 @@
   </si>
   <si>
     <t>Корпус - авто, башня - пулемёт</t>
+  </si>
+  <si>
+    <t>Йети</t>
+  </si>
+  <si>
+    <t>Новый биом уровня, знакомство с камуфляжными танками и Йети</t>
+  </si>
+  <si>
+    <t>Койот/снежный Койот</t>
+  </si>
+  <si>
+    <t>Толстяк</t>
+  </si>
+  <si>
+    <t>Первая настоящая битва, знакомство с Толстяком</t>
+  </si>
+  <si>
+    <t>Новый биом уровня, битва с Койотом и раллийными танками</t>
+  </si>
+  <si>
+    <t>Большой Йети</t>
+  </si>
+  <si>
+    <t>Знакомство с зимней локацией, со снежными Койотами</t>
+  </si>
+  <si>
+    <t>Сложный</t>
+  </si>
+  <si>
+    <t>Большое количество здоровья, имеет две башни: пулеметную, как у раллийного танка и как у Толстяка. Поворотливый, но медленный.</t>
+  </si>
+  <si>
+    <t>Огромное количество здоровья, имеет две башни: пулеметную, как у раллийного танка и как у Толстяка. Поворотливый, но медленный.</t>
+  </si>
+  <si>
+    <t>Выглядит как Ratte, размером с толстяка</t>
+  </si>
+  <si>
+    <t>Выглядит как Ratte, размером с два толстяка</t>
+  </si>
+  <si>
+    <t>Финальная битва с Большим Йети и со снежными койотами по пути</t>
+  </si>
+  <si>
+    <t>Знакомство и проба механики щита игрока</t>
+  </si>
+  <si>
+    <t>Показать игроку как работают щиты не примере стандартных танков</t>
+  </si>
+  <si>
+    <t>Мечта шейха</t>
+  </si>
+  <si>
+    <t xml:space="preserve">По пути в тайге встречаются койоты в снегу. В конце битва в ледяном дворце с боссом - Большим Йети </t>
   </si>
 </sst>
 </file>
@@ -553,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="97.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -587,16 +629,16 @@
         <v>7</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -610,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -633,22 +675,22 @@
         <v>5</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -656,25 +698,25 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -682,25 +724,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -708,20 +750,25 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="F6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -729,20 +776,62 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="F7" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>37</v>
+      <c r="G8" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F9" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Levels Objectives.xlsx
+++ b/Levels Objectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Desktop\Syntez\Tanchiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C910BAD-783D-4CA9-9F62-1A87D89B68BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD481F39-294D-439E-ABE0-F650E84A8946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,14 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
   <si>
     <t>Обучение</t>
   </si>
   <si>
-    <t>Номер</t>
-  </si>
-  <si>
     <t>Название уровня</t>
   </si>
   <si>
@@ -159,9 +156,6 @@
     <t>Первая настоящая битва, знакомство с Толстяком</t>
   </si>
   <si>
-    <t>Новый биом уровня, битва с Койотом и раллийными танками</t>
-  </si>
-  <si>
     <t>Большой Йети</t>
   </si>
   <si>
@@ -189,13 +183,22 @@
     <t>Знакомство и проба механики щита игрока</t>
   </si>
   <si>
-    <t>Показать игроку как работают щиты не примере стандартных танков</t>
-  </si>
-  <si>
     <t>Мечта шейха</t>
   </si>
   <si>
     <t xml:space="preserve">По пути в тайге встречаются койоты в снегу. В конце битва в ледяном дворце с боссом - Большим Йети </t>
+  </si>
+  <si>
+    <t>Показать игроку как работают щиты не примере стандартных танков. Мегаполис протодубай</t>
+  </si>
+  <si>
+    <t>Номер уровня</t>
+  </si>
+  <si>
+    <t>Новый биом уровня, знакомство с Койотом и раллийными танками</t>
+  </si>
+  <si>
+    <t>Build index</t>
   </si>
 </sst>
 </file>
@@ -286,7 +289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -315,9 +318,12 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -597,17 +603,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B6" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="97.2" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.77734375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="44.44140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="27.21875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.21875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" style="9" customWidth="1"/>
     <col min="7" max="7" width="25.6640625" style="3" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" style="3" customWidth="1"/>
@@ -616,222 +622,249 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>7</v>
+      <c r="E1" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="F1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>24</v>
+      <c r="E2" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="F2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>43</v>
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>4</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>8</v>
+        <v>42</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="H3" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>44</v>
+      <c r="B4" s="5">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="H4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="B5" s="5">
+        <v>5</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>54</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>10</v>
+      <c r="C6" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>26</v>
+        <v>9</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>40</v>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>33</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="F7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="I7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>52</v>
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="I8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Levels Objectives.xlsx
+++ b/Levels Objectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Desktop\Syntez\Tanchiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD481F39-294D-439E-ABE0-F650E84A8946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D667293-2BDF-4B06-B9E2-31EB51B96BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="97.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>5</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>41</v>
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>40</v>

--- a/Levels Objectives.xlsx
+++ b/Levels Objectives.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vadim\OneDrive\Desktop\Syntez\Tanchiki\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D667293-2BDF-4B06-B9E2-31EB51B96BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE73B030-96F8-44BD-A816-43C80C89EBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,12 +165,6 @@
     <t>Сложный</t>
   </si>
   <si>
-    <t>Большое количество здоровья, имеет две башни: пулеметную, как у раллийного танка и как у Толстяка. Поворотливый, но медленный.</t>
-  </si>
-  <si>
-    <t>Огромное количество здоровья, имеет две башни: пулеметную, как у раллийного танка и как у Толстяка. Поворотливый, но медленный.</t>
-  </si>
-  <si>
     <t>Выглядит как Ratte, размером с толстяка</t>
   </si>
   <si>
@@ -199,6 +193,12 @@
   </si>
   <si>
     <t>Build index</t>
+  </si>
+  <si>
+    <t>Большое количество здоровья. Имеет мощную пушку со средней скорострельностью. Поворотливый, но медленный.</t>
+  </si>
+  <si>
+    <t>Огромное количество здоровья. Имеет мощную пушку со средней скорострельностью. Поворотливый, но медленный.</t>
   </si>
 </sst>
 </file>
@@ -603,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="97.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -623,10 +623,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="8" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>57</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>1</v>
@@ -719,7 +719,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>26</v>
@@ -774,13 +774,13 @@
         <v>6</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>40</v>
@@ -835,19 +835,19 @@
         <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>45</v>
@@ -858,10 +858,10 @@
         <v>43</v>
       </c>
       <c r="G9" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>45</v>
